--- a/projet_ST7/phase_2/InstancesV2/InstanceSpainV2.xlsx
+++ b/projet_ST7/phase_2/InstancesV2/InstanceSpainV2.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anne-laurencethoux/Documents/Thèse/ST_CtlSup/InstancesV2/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3072C6DC-64FC-C149-BE4A-2D96E97E5A37}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="52320" yWindow="460" windowWidth="29520" windowHeight="14520" activeTab="3" xr2:uid="{745759C5-7123-8144-B92E-2C75C62BB0A9}"/>
+    <workbookView xWindow="52320" yWindow="456" windowWidth="23256" windowHeight="13176"/>
   </bookViews>
   <sheets>
     <sheet name="Employees" sheetId="1" r:id="rId1"/>
@@ -18,9 +12,9 @@
     <sheet name="Tasks" sheetId="2" r:id="rId3"/>
     <sheet name="Tasks Unavailabilities" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="116">
   <si>
     <t>Latitude</t>
   </si>
@@ -382,13 +376,16 @@
   </si>
   <si>
     <t>2:00pm</t>
+  </si>
+  <si>
+    <t>7:00pm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -494,7 +491,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -546,7 +543,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -740,23 +737,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F9C2C5F-E1A7-F54F-815D-9D441051269D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView zoomScale="139" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:G2"/>
+    <sheetView tabSelected="1" zoomScale="139" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -779,7 +776,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -802,7 +799,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -822,10 +819,10 @@
         <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -848,11 +845,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="E6" s="2"/>
@@ -864,16 +861,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{219211A2-3470-FA4D-98F8-982783253CF4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -890,7 +887,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -907,7 +904,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -930,23 +927,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEA72F52-AB34-1E4A-8B1D-E76BD6529E91}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView topLeftCell="A33" zoomScale="137" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.1640625" customWidth="1"/>
+    <col min="4" max="4" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.19921875" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="8.83203125" customWidth="1"/>
+    <col min="8" max="8" width="8.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -972,7 +969,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -998,7 +995,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1024,7 +1021,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1050,7 +1047,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1076,7 +1073,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1102,7 +1099,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -1128,7 +1125,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1154,7 +1151,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -1180,7 +1177,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -1206,7 +1203,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -1232,7 +1229,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
         <v>62</v>
       </c>
@@ -1258,7 +1255,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
         <v>65</v>
       </c>
@@ -1284,7 +1281,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
         <v>68</v>
       </c>
@@ -1310,7 +1307,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
         <v>71</v>
       </c>
@@ -1336,7 +1333,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
         <v>74</v>
       </c>
@@ -1362,7 +1359,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
         <v>77</v>
       </c>
@@ -1388,7 +1385,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
         <v>80</v>
       </c>
@@ -1414,7 +1411,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
         <v>83</v>
       </c>
@@ -1440,7 +1437,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
         <v>86</v>
       </c>
@@ -1466,7 +1463,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
         <v>89</v>
       </c>
@@ -1492,7 +1489,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
         <v>92</v>
       </c>
@@ -1518,7 +1515,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
         <v>95</v>
       </c>
@@ -1544,7 +1541,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
         <v>98</v>
       </c>
@@ -1570,7 +1567,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
         <v>101</v>
       </c>
@@ -1596,7 +1593,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
         <v>104</v>
       </c>
@@ -1622,7 +1619,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
         <v>107</v>
       </c>
@@ -1648,7 +1645,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
         <v>108</v>
       </c>
@@ -1674,280 +1671,280 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8">
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8">
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8">
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8">
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="4:4">
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="4:4">
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="4:4">
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="4:4">
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="4:4">
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="4:4">
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="4:4">
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="4:4">
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="4:4">
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="4:4">
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="4:4">
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="4:4">
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="4:4">
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="4:4">
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="4:4">
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="4:4">
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="4:4">
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="4:4">
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="4:4">
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="4:4">
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="4:4">
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="4:4">
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="4:4">
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="4:4">
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="4:4">
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="4:4">
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="4:4">
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="4:4">
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="4:4">
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="4:4">
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="4:4">
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="4:4">
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="4:4">
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="4:4">
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="4:4">
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="4:4">
       <c r="D68" s="1"/>
     </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="4:4">
       <c r="D69" s="1"/>
     </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="4:4">
       <c r="D70" s="1"/>
     </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="4:4">
       <c r="D71" s="1"/>
     </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="4:4">
       <c r="D72" s="1"/>
     </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="4:4">
       <c r="D73" s="1"/>
     </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="4:4">
       <c r="D74" s="1"/>
     </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="4:4">
       <c r="D75" s="1"/>
     </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="4:4">
       <c r="D76" s="1"/>
     </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="4:4">
       <c r="D77" s="1"/>
     </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="4:4">
       <c r="D78" s="1"/>
     </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="4:4">
       <c r="D79" s="1"/>
     </row>
-    <row r="80" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="4:4">
       <c r="D80" s="1"/>
     </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="4:4">
       <c r="D81" s="1"/>
     </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="4:4">
       <c r="D82" s="1"/>
     </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="4:4">
       <c r="D83" s="1"/>
     </row>
-    <row r="84" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="4:4">
       <c r="D84" s="1"/>
     </row>
-    <row r="85" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="4:4">
       <c r="D85" s="1"/>
     </row>
-    <row r="86" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="4:4">
       <c r="D86" s="1"/>
     </row>
-    <row r="87" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="4:4">
       <c r="D87" s="1"/>
     </row>
-    <row r="88" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="4:4">
       <c r="D88" s="1"/>
     </row>
-    <row r="89" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="4:4">
       <c r="D89" s="1"/>
     </row>
-    <row r="90" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="4:4">
       <c r="D90" s="1"/>
     </row>
-    <row r="91" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="4:4">
       <c r="D91" s="1"/>
     </row>
-    <row r="92" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="4:4">
       <c r="D92" s="1"/>
     </row>
-    <row r="93" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="4:4">
       <c r="D93" s="1"/>
     </row>
-    <row r="94" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="4:4">
       <c r="D94" s="1"/>
     </row>
-    <row r="95" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="4:4">
       <c r="D95" s="1"/>
     </row>
-    <row r="96" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="4:4">
       <c r="D96" s="1"/>
     </row>
-    <row r="97" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="4:4">
       <c r="D97" s="1"/>
     </row>
-    <row r="98" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="4:4">
       <c r="D98" s="1"/>
     </row>
-    <row r="99" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="4:4">
       <c r="D99" s="1"/>
     </row>
-    <row r="100" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="4:4">
       <c r="D100" s="1"/>
     </row>
-    <row r="101" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="4:4">
       <c r="D101" s="1"/>
     </row>
-    <row r="102" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="4:4">
       <c r="D102" s="1"/>
     </row>
-    <row r="103" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="4:4">
       <c r="D103" s="1"/>
     </row>
-    <row r="104" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="4:4">
       <c r="D104" s="1"/>
     </row>
-    <row r="105" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="4:4">
       <c r="D105" s="1"/>
     </row>
-    <row r="106" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="4:4">
       <c r="D106" s="1"/>
     </row>
-    <row r="107" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="4:4">
       <c r="D107" s="1"/>
     </row>
-    <row r="108" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="4:4">
       <c r="D108" s="1"/>
     </row>
-    <row r="109" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="4:4">
       <c r="D109" s="1"/>
     </row>
-    <row r="110" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="4:4">
       <c r="D110" s="1"/>
     </row>
-    <row r="111" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="4:4">
       <c r="D111" s="1"/>
     </row>
-    <row r="112" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="4:4">
       <c r="D112" s="1"/>
     </row>
-    <row r="113" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="4:4">
       <c r="D113" s="1"/>
     </row>
-    <row r="114" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="4:4">
       <c r="D114" s="1"/>
     </row>
-    <row r="115" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="4:4">
       <c r="D115" s="1"/>
     </row>
-    <row r="116" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="4:4">
       <c r="D116" s="1"/>
     </row>
-    <row r="117" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="4:4">
       <c r="D117" s="1"/>
     </row>
-    <row r="118" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="4:4">
       <c r="D118" s="1"/>
     </row>
-    <row r="119" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="4:4">
       <c r="D119" s="1"/>
     </row>
-    <row r="120" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="4:4">
       <c r="D120" s="1"/>
     </row>
   </sheetData>
@@ -1957,16 +1954,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40AD92C6-B4F4-614C-BEE0-83D086C441D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -1977,7 +1974,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1988,7 +1985,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>62</v>
       </c>
@@ -1999,7 +1996,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -2010,7 +2007,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>86</v>
       </c>
@@ -2021,7 +2018,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>86</v>
       </c>

--- a/projet_ST7/phase_2/InstancesV2/InstanceSpainV2.xlsx
+++ b/projet_ST7/phase_2/InstancesV2/InstanceSpainV2.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yandi\Desktop\ST7_phase2\projet_ST7\projet_ST7\phase_2\InstancesV2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE16F0D-D3C7-444D-930C-877138F997FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="52320" yWindow="456" windowWidth="23256" windowHeight="13176"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Employees" sheetId="1" r:id="rId1"/>
@@ -13,25 +19,16 @@
     <sheet name="Tasks Unavailabilities" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="117">
   <si>
     <t>Latitude</t>
   </si>
@@ -379,13 +376,16 @@
   </si>
   <si>
     <t>7:00pm</t>
+  </si>
+  <si>
+    <t>5:01pm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -491,7 +491,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -543,7 +543,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -737,23 +737,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="139" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="139" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -776,7 +776,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -799,7 +799,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -822,7 +822,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -845,11 +845,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="E6" s="2"/>
@@ -861,16 +861,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -887,7 +887,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -904,7 +904,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -918,7 +918,7 @@
         <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -927,23 +927,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView topLeftCell="A33" zoomScale="137" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="12.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.19921875" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.1640625" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="8.796875" customWidth="1"/>
+    <col min="8" max="8" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -969,7 +969,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -995,7 +995,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1021,7 +1021,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1047,7 +1047,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1073,7 +1073,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1099,7 +1099,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -1125,7 +1125,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1151,7 +1151,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -1177,7 +1177,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -1203,7 +1203,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>62</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>65</v>
       </c>
@@ -1281,7 +1281,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>68</v>
       </c>
@@ -1307,7 +1307,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>71</v>
       </c>
@@ -1333,7 +1333,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>74</v>
       </c>
@@ -1359,7 +1359,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>77</v>
       </c>
@@ -1385,7 +1385,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>80</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>83</v>
       </c>
@@ -1437,7 +1437,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>86</v>
       </c>
@@ -1463,7 +1463,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>89</v>
       </c>
@@ -1489,7 +1489,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>92</v>
       </c>
@@ -1515,7 +1515,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>95</v>
       </c>
@@ -1541,7 +1541,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>98</v>
       </c>
@@ -1567,7 +1567,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>101</v>
       </c>
@@ -1593,7 +1593,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>104</v>
       </c>
@@ -1619,7 +1619,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>107</v>
       </c>
@@ -1645,7 +1645,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>108</v>
       </c>
@@ -1671,280 +1671,280 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="4:4">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="4:4">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="4:4">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="4:4">
+    <row r="36" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="4:4">
+    <row r="37" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="4:4">
+    <row r="38" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="4:4">
+    <row r="39" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="4:4">
+    <row r="40" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="4:4">
+    <row r="41" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="4:4">
+    <row r="42" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="4:4">
+    <row r="43" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="4:4">
+    <row r="44" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="4:4">
+    <row r="45" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="4:4">
+    <row r="46" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="4:4">
+    <row r="47" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="4:4">
+    <row r="48" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="4:4">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="4:4">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="4:4">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="4:4">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="4:4">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="4:4">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="4:4">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="4:4">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="4:4">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="4:4">
+    <row r="58" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="4:4">
+    <row r="59" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="4:4">
+    <row r="60" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="4:4">
+    <row r="61" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="4:4">
+    <row r="62" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="4:4">
+    <row r="63" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="4:4">
+    <row r="64" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="4:4">
+    <row r="65" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="4:4">
+    <row r="66" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="4:4">
+    <row r="67" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="4:4">
+    <row r="68" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D68" s="1"/>
     </row>
-    <row r="69" spans="4:4">
+    <row r="69" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D69" s="1"/>
     </row>
-    <row r="70" spans="4:4">
+    <row r="70" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D70" s="1"/>
     </row>
-    <row r="71" spans="4:4">
+    <row r="71" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D71" s="1"/>
     </row>
-    <row r="72" spans="4:4">
+    <row r="72" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D72" s="1"/>
     </row>
-    <row r="73" spans="4:4">
+    <row r="73" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D73" s="1"/>
     </row>
-    <row r="74" spans="4:4">
+    <row r="74" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D74" s="1"/>
     </row>
-    <row r="75" spans="4:4">
+    <row r="75" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D75" s="1"/>
     </row>
-    <row r="76" spans="4:4">
+    <row r="76" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D76" s="1"/>
     </row>
-    <row r="77" spans="4:4">
+    <row r="77" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D77" s="1"/>
     </row>
-    <row r="78" spans="4:4">
+    <row r="78" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D78" s="1"/>
     </row>
-    <row r="79" spans="4:4">
+    <row r="79" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D79" s="1"/>
     </row>
-    <row r="80" spans="4:4">
+    <row r="80" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D80" s="1"/>
     </row>
-    <row r="81" spans="4:4">
+    <row r="81" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D81" s="1"/>
     </row>
-    <row r="82" spans="4:4">
+    <row r="82" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D82" s="1"/>
     </row>
-    <row r="83" spans="4:4">
+    <row r="83" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D83" s="1"/>
     </row>
-    <row r="84" spans="4:4">
+    <row r="84" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D84" s="1"/>
     </row>
-    <row r="85" spans="4:4">
+    <row r="85" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D85" s="1"/>
     </row>
-    <row r="86" spans="4:4">
+    <row r="86" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D86" s="1"/>
     </row>
-    <row r="87" spans="4:4">
+    <row r="87" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D87" s="1"/>
     </row>
-    <row r="88" spans="4:4">
+    <row r="88" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D88" s="1"/>
     </row>
-    <row r="89" spans="4:4">
+    <row r="89" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D89" s="1"/>
     </row>
-    <row r="90" spans="4:4">
+    <row r="90" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D90" s="1"/>
     </row>
-    <row r="91" spans="4:4">
+    <row r="91" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D91" s="1"/>
     </row>
-    <row r="92" spans="4:4">
+    <row r="92" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D92" s="1"/>
     </row>
-    <row r="93" spans="4:4">
+    <row r="93" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D93" s="1"/>
     </row>
-    <row r="94" spans="4:4">
+    <row r="94" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D94" s="1"/>
     </row>
-    <row r="95" spans="4:4">
+    <row r="95" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D95" s="1"/>
     </row>
-    <row r="96" spans="4:4">
+    <row r="96" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D96" s="1"/>
     </row>
-    <row r="97" spans="4:4">
+    <row r="97" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D97" s="1"/>
     </row>
-    <row r="98" spans="4:4">
+    <row r="98" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D98" s="1"/>
     </row>
-    <row r="99" spans="4:4">
+    <row r="99" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D99" s="1"/>
     </row>
-    <row r="100" spans="4:4">
+    <row r="100" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D100" s="1"/>
     </row>
-    <row r="101" spans="4:4">
+    <row r="101" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D101" s="1"/>
     </row>
-    <row r="102" spans="4:4">
+    <row r="102" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D102" s="1"/>
     </row>
-    <row r="103" spans="4:4">
+    <row r="103" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D103" s="1"/>
     </row>
-    <row r="104" spans="4:4">
+    <row r="104" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D104" s="1"/>
     </row>
-    <row r="105" spans="4:4">
+    <row r="105" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D105" s="1"/>
     </row>
-    <row r="106" spans="4:4">
+    <row r="106" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D106" s="1"/>
     </row>
-    <row r="107" spans="4:4">
+    <row r="107" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D107" s="1"/>
     </row>
-    <row r="108" spans="4:4">
+    <row r="108" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D108" s="1"/>
     </row>
-    <row r="109" spans="4:4">
+    <row r="109" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D109" s="1"/>
     </row>
-    <row r="110" spans="4:4">
+    <row r="110" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D110" s="1"/>
     </row>
-    <row r="111" spans="4:4">
+    <row r="111" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D111" s="1"/>
     </row>
-    <row r="112" spans="4:4">
+    <row r="112" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D112" s="1"/>
     </row>
-    <row r="113" spans="4:4">
+    <row r="113" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D113" s="1"/>
     </row>
-    <row r="114" spans="4:4">
+    <row r="114" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D114" s="1"/>
     </row>
-    <row r="115" spans="4:4">
+    <row r="115" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D115" s="1"/>
     </row>
-    <row r="116" spans="4:4">
+    <row r="116" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D116" s="1"/>
     </row>
-    <row r="117" spans="4:4">
+    <row r="117" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D117" s="1"/>
     </row>
-    <row r="118" spans="4:4">
+    <row r="118" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D118" s="1"/>
     </row>
-    <row r="119" spans="4:4">
+    <row r="119" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D119" s="1"/>
     </row>
-    <row r="120" spans="4:4">
+    <row r="120" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D120" s="1"/>
     </row>
   </sheetData>
@@ -1954,16 +1954,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -1974,7 +1974,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1985,7 +1985,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>62</v>
       </c>
@@ -1996,7 +1996,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -2007,7 +2007,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>86</v>
       </c>
@@ -2018,7 +2018,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>86</v>
       </c>
